--- a/filter_rt_data/filtered_data.xlsx
+++ b/filter_rt_data/filtered_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="数据详情" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1212 +436,4611 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>foreground</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>66953e4cb74e00003069df14</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>android.location.LocationManager.requestLocationUpdates</t>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.queryIntentActivities(com.lemon.lvoverseas)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.queryIntentActivities(com.lemon.lvoverseas)
+at android.app.ApplicationPackageManager.queryIntentActivities(null:30)
+at android.app.ApplicationPackageManager.getLaunchIntentForPackage(ApplicationPackageManager.java:307)
+at com.ss.android.common.util.ToolUtils.getLaunchIntentForPackage(SourceFile:33882120)
+at com.ss.android.message.util.ToolUtils.getLaunchActivity(SourceFile:17104909)
+at com.bytedance.push.task.UpdateSenderTask.a(SourceFile:143)
+at com.bytedance.push.SenderService.a(SourceFile:17301538)
+at com.bytedance.push.PushImpl.a(SourceFile:265)
+at com.lm.components.push.BasePushManager.a(SourceFile:17039388)
+at com.lm.components.push.BasePushManager.a(SourceFile:16973844)
+at com.lm.components.push.BasePushManager.lambda$84593KUV0oBO8-IJQ0iyo1EKigc(null:0)
+at com.lm.components.push.-$$Lambda$BasePushManager$84593KUV0oBO8-IJQ0iyo1EKigc.run(null:2)
+at com.lm.components.core.push.PushThreadPool$submitTask$1$job$2.invokeSuspend(SourceFile:17039382)
+at kotlin.coroutines.jvm.internal.BaseContinuationImpl.resumeWith(SourceFile:17039374)
+at kotlinx.coroutines.DispatchedTask.run(SourceFile:524513)
+at kotlinx.coroutines.scheduling.CoroutineScheduler.a(SourceFile:570)
+at kotlinx.coroutines.scheduling.CoroutineScheduler$Worker.a(SourceFile:17039395)
+at kotlinx.coroutines.scheduling.CoroutineScheduler$Worker.d(SourceFile:393280)
+at kotlinx.coroutines.scheduling.CoroutineScheduler$Worker.run(SourceFile:131076)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adb8</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>android.view.accessibility.AccessibilityManager.getInstalledAccessibilityServiceList</t>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.getPackageInfo(com.facebook.katana)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.getPackageInfo(com.facebook.katana)
+at android.app.ApplicationPackageManager.getPackageInfo(null:30)
+at com.facebook.ads.redexgen.X.Kt.A01(:42679)
+at com.facebook.ads.redexgen.X.Kt.A00(:42673)
+at com.facebook.ads.redexgen.X.X7.A00(:66285)
+at com.facebook.ads.redexgen.X.X7.A6d(:66408)
+at com.facebook.ads.redexgen.X.XB.A6e(:66563)
+at com.facebook.ads.redexgen.X.3p.A03(:10615)
+at com.facebook.ads.redexgen.X.3p.A04(:10647)
+at com.facebook.ads.redexgen.X.3p.AEV(:10702)
+at com.facebook.ads.redexgen.X.Gf.A01(:35162)
+at com.facebook.ads.redexgen.X.Gf.A03(:35175)
+at com.facebook.ads.redexgen.X.Qm.run(:49957)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad06</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>com.android.internal.telephony.ITelephony$Stub$Proxy.getAllCellInfo</t>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.getPackageInfo(com.lemon.lvoverseas)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.getPackageInfo(com.lemon.lvoverseas)
+at android.app.ApplicationPackageManager.getPackageInfo(null:30)
+at com.vega.launcher.network.interceptors.RetrofitHeaderInterceptor.f(SourceFile:262174)
+at com.vega.launcher.network.interceptors.RetrofitHeaderInterceptor.a(SourceFile:17301887)
+at com.vega.launcher.network.interceptors.RetrofitHeaderInterceptor.intercept(SourceFile:17301750)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.vega.libeffectapi.util.VimoNetHeaderInterceptor.intercept(SourceFile:17236223)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.lm.components.network.extra.HttpHeaderInterceptor.intercept(SourceFile:17105009)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.vega.launcher.network.interceptors.PPEInterceptor.a(SourceFile:33947814)
+at com.vega.launcher.network.interceptors.PPEInterceptor.intercept(SourceFile:17301935)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.ss.android.account.token.TTTokenInterceptor.intercept(SourceFile:17170525)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.ss.android.account.token.TTTokenInterceptor.intercept(SourceFile:17170525)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.bytedance.bdturing.ttnet.TTNetUtil$2.intercept(SourceFile:17104988)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.bytedance.frameworks.baselib.network.http.retrofit.BaseSsInterceptor.intercept(SourceFile:17104977)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.bytedance.retrofit2.SsHttpCall.getResponseWithInterceptorChain(SourceFile:327770)
+at com.bytedance.retrofit2.SsHttpCall.execute(SourceFile:459113)
+at com.bytedance.retrofit2.ExecutorCallAdapterFactory$ExecutorCallbackCall.execute(SourceFile:131078)
+at com.lm.components.network.extra.AppLogNetworkClient.post(SourceFile:67567766)
+at com.ss.android.common.applog.NetUtilWrapper.sendEncryptLog(SourceFile:168296948)
+at com.ss.android.common.applog.NetUtil.sendEncryptLog(SourceFile:167903236)
+at com.ss.android.common.applog.LogReaper.sendLog(SourceFile:593)
+at com.ss.android.common.applog.LogReaper.sendBatchLog(SourceFile:50659422)
+at com.ss.android.common.applog.LogReaper.switchSession(SourceFile:101253553)
+at com.ss.android.common.applog.LogReaper.switchSession(SourceFile:67305483)
+at com.ss.android.common.applog.LogReaper.processItem(SourceFile:17170507)
+at com.ss.android.common.applog.LogReaper.run(SourceFile:524401)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>66953e42b74e00003069de26</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>android.telephony.TelephonyManager.getAllCellInfo</t>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.getPackageInfo(com.google.android.webview)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.getPackageInfo(com.google.android.webview)
+at android.app.ApplicationPackageManager.getPackageInfo(null:30)
+at android.webkit.WebViewFactory.getWebViewContextAndSetProvider(WebViewFactory.java:444)
+at android.webkit.WebViewFactory.getProviderClass(WebViewFactory.java:493)
+at android.webkit.WebViewFactory.getProvider(WebViewFactory.java:348)
+at android.webkit.WebView.getFactory(WebView.java:2594)
+at android.webkit.WebView.setWebContentsDebuggingEnabled(WebView.java:2009)
+at com.lemon.faceuassist.FaceAssistProvider.onCreate(SourceFile:327740)
+at android.content.ContentProvider.attachInfo(ContentProvider.java:2468)
+at android.content.ContentProvider.attachInfo(ContentProvider.java:2433)
+at android.app.ActivityThread.installProvider(ActivityThread.java:7721)
+at android.app.ActivityThread.installContentProviders(ActivityThread.java:7232)
+at android.app.ActivityThread.handleBindApplication(ActivityThread.java:6995)
+at android.app.ActivityThread.-$$Nest$mhandleBindApplication(null:0)
+at android.app.ActivityThread$H.handleMessage(ActivityThread.java:2231)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>66953e42b74e00003069de2e</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.getPackageInfo(projekt.substratum)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.getPackageInfo(projekt.substratum)
+at android.app.ApplicationPackageManager.getPackageInfo(null:30)
+at WV.WF.b(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:7)
+at org.chromium.base.BuildInfo.&lt;init&gt;(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:264)
+at WV.db.&lt;clinit&gt;(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:3)
+at org.chromium.content.browser.ChildProcessLauncherHelperImpl.a(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:196)
+at WV.Gc.run(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:24)
+at android.os.Handler.handleCallback(Handler.java:942)
+at android.os.Handler.dispatchMessage(Handler.java:99)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.os.HandlerThread.run(HandlerThread.java:67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad0b</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.getPackageInfo(com.android.vending)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.getPackageInfo(com.android.vending)
+at android.app.ApplicationPackageManager.getPackageInfo(null:30)
+at com.google.android.gms.common.GooglePlayServicesUtilLight.isGooglePlayServicesAvailable(SourceFile:34013287)
+at com.google.android.gms.common.GoogleApiAvailabilityLight.isGooglePlayServicesAvailable(SourceFile:33685504)
+at com.google.android.gms.common.GoogleApiAvailability.isGooglePlayServicesAvailable(SourceFile:33685504)
+at com.google.android.gms.common.GoogleApiAvailabilityLight.isGooglePlayServicesAvailable(SourceFile:16842754)
+at com.google.android.gms.common.GoogleApiAvailability.isGooglePlayServicesAvailable(SourceFile:16842752)
+at com.appsflyer.internal.AFb1tSDK.valueOf(SourceFile:34078765)
+at com.appsflyer.internal.AFb1vSDK.AFKeystoreWrapper(SourceFile:1425)
+at com.appsflyer.internal.AFb1vSDK.values(SourceFile:1317)
+at com.appsflyer.internal.AFb1vSDK.AFInAppEventParameterName(SourceFile:34144282)
+at com.appsflyer.internal.AFb1vSDK$AFa1uSDK.run(SourceFile:131080)
+at java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:463)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ScheduledThreadPoolExecutor$ScheduledFutureTask.run(ScheduledThreadPoolExecutor.java:307)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AppInfo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>android.app.ApplicationPackageManager.getPackageInfo(com.google.android.gms)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>at android.app.ApplicationPackageManager.getPackageInfo(com.google.android.gms)
+at android.app.ApplicationPackageManager.getPackageInfo(null:30)
+at com.google.android.gms.common.GooglePlayServicesUtilLight.isGooglePlayServicesAvailable(SourceFile:34013312)
+at com.google.android.gms.common.GoogleApiAvailabilityLight.isGooglePlayServicesAvailable(SourceFile:33685504)
+at com.google.android.gms.ads.identifier.AdvertisingIdClient.zzb(SourceFile:17170464)
+at com.google.android.gms.ads.identifier.AdvertisingIdClient.getAdvertisingIdInfo(SourceFile:17039376)
+at com.appsflyer.internal.AFb1tSDK.com_appsflyer_internal_AFb1tSDK_com_google_android_gms_ads_identifier_AdvertisingIdClient_getAdvertisingIdInfo(null:77)
+at com.appsflyer.internal.AFb1tSDK.valueOf(SourceFile:34078797)
+at com.appsflyer.internal.AFb1vSDK.AFKeystoreWrapper(SourceFile:1425)
+at com.appsflyer.internal.AFb1vSDK.values(SourceFile:1317)
+at com.appsflyer.internal.AFb1vSDK.AFInAppEventParameterName(SourceFile:34144282)
+at com.appsflyer.internal.AFb1vSDK$AFa1uSDK.run(SourceFile:131080)
+at java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:463)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ScheduledThreadPoolExecutor$ScheduledFutureTask.run(ScheduledThreadPoolExecutor.java:307)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>66950e334c31440030f56e11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AppList</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>android.app.ActivityManager.getRunningAppProcesses</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>at android.app.ActivityManager.getRunningAppProcesses
+at android.app.ActivityManager.getRunningAppProcesses(null:12)
+at com.bytedance.pumbaa.common.business.ForegroundHolder.a(SourceFile:458829)
+at com.bytedance.pumbaa.common.business.lifecycle.ProcessLifecycle.a(SourceFile:17170438)
+at com.bytedance.helios.network.event.NetworkEventFactory.b(SourceFile:17236305)
+at com.bytedance.helios.network.event.NetworkEventFactory.a(SourceFile:34078912)
+at com.bytedance.helios.network.NetworkInvoker.handleRequestStack(SourceFile:17104932)
+at com.bytedance.helios.network.NetworkInvoker.preInvoke(SourceFile:117899580)
+at com.bytedance.helios.statichook.api.HeliosApiHook.preInvoke(SourceFile:117768234)
+at com.bytedance.test.codecoverage.utils.dataUploadUtils.com_bytedance_test_codecoverage_utils_dataUploadUtils_java_net_URL_openConnection(null:31)
+at com.bytedance.test.codecoverage.utils.dataUploadUtils.uploadCov(SourceFile:34078745)
+at com.bytedance.test.codecoverage.utils.dataUploadUtils.uploadCovFile(SourceFile:33816601)
+at com.bytedance.test.codecoverage.utils.dataUploadUtils.dataFileUpload(SourceFile:33816605)
+at com.bytedance.test.codecoverage.CodeCoverageMonitor.c(SourceFile:262180)
+at com.vega.launcher.JacocoUtils$1.run(SourceFile:458821)
+at java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:463)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>66950e42a564f9002f82ad49</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AppList</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>android.app.ActivityManager.getRunningServices</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>android.telephony.gsm.GsmCellLocation.getCid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>at android.app.ActivityManager.getRunningServices
+at android.app.ActivityManager.getRunningServices(null:23)
+at com.bytedance.common.wschannel.utils.Utils.com_bytedance_common_wschannel_utils_Utils_android_app_ActivityManager_getRunningServices(null:59)
+at com.bytedance.common.wschannel.utils.Utils.isServiceRunning(SourceFile:33947683)
+at com.bytedance.common.wschannel.server.ClientMsgSender$OSender$2.run(SourceFile:327712)
+at android.os.Handler.handleCallback(Handler.java:942)
+at android.os.Handler.dispatchMessage(Handler.java:99)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.os.HandlerThread.run(HandlerThread.java:67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>66953e43b74e00003069de8c</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clipboard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>android.content.ClipboardManager.addPrimaryClipChangedListener</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>at android.content.ClipboardManager.addPrimaryClipChangedListener
+at android.content.ClipboardManager.addPrimaryClipChangedListener(null:19)
+at WV.Hd.&lt;init&gt;(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:10)
+at org.chromium.ui.base.Clipboard.getInstance(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:19)
+at WV.x6.onWindowFocusChanged(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:86)
+at org.chromium.android_webview.AwContents.z(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:74)
+at org.chromium.android_webview.AwContents.&lt;init&gt;(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:486)
+at com.android.webview.chromium.k.run(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:147)
+at WV.GY.b(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:20)
+at WV.FY.run(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:3)
+at org.chromium.base.task.PostTask.e(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:11)
+at WV.GY.a(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:23)
+at com.android.webview.chromium.WebViewChromiumFactoryProvider.a(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:3)
+at com.android.webview.chromium.WebViewChromium.init(chromium-TrichromeWebViewGoogle6432.aab-stable-647813433:327)
+at android.webkit.WebView.&lt;init&gt;(WebView.java:443)
+at android.webkit.WebView.&lt;init&gt;(WebView.java:363)
+at android.webkit.WebView.&lt;init&gt;(WebView.java:345)
+at android.webkit.WebView.&lt;init&gt;(WebView.java:332)
+at android.webkit.WebView.&lt;init&gt;(WebView.java:322)
+at com.bytedance.hybrid.web.extension.core.webview.inner.WebViewContainerInner.&lt;init&gt;(SourceFile:16973828)
+at com.bytedance.hybrid.web.extension.core.webview.WebViewContainer.&lt;init&gt;(SourceFile:16908292)
+at com.bytedance.lynx.hybrid.webkit.WebKitView.&lt;init&gt;(SourceFile:33816593)
+at com.bytedance.lynx.hybrid.webkit.WebKitView.&lt;init&gt;(SourceFile:67436570)
+at com.bytedance.lynx.hybrid.performance.PerformanceKit$init$2.a(SourceFile:50724885)
+at com.bytedance.lynx.hybrid.performance.precreate.HybridKitMultiKitViewSupplier$1.queueIdle(SourceFile:327730)
+at android.os.MessageQueue.next(MessageQueue.java:410)
+at android.os.Looper.loopOnce(Looper.java:169)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>66950e62a564f9002f82afe9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mcc&amp;Mnc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>android.telephony.TelephonyManager.getNetworkCountryIso</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>at android.telephony.TelephonyManager.getNetworkCountryIso
+at android.telephony.TelephonyManager.getNetworkCountryIso(null:12)
+at com.ironsource.environment.h.b(null:53)
+at com.ironsource.environment.h.j(null:19)
+at com.ironsource.environment.c.b.c(null:180)
+at com.ironsource.environment.c.b.a(null:4)
+at com.ironsource.environment.c.c.a(null:6)
+at com.ironsource.environment.c.c.a(null:12)
+at com.ironsource.environment.b.b.a(null:10)
+at com.ironsource.mediationsdk.events.b.b(null:246)
+at com.ironsource.mediationsdk.events.b$2.run(null:575)
+at android.os.Handler.handleCallback(Handler.java:942)
+at android.os.Handler.dispatchMessage(Handler.java:99)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.os.HandlerThread.run(HandlerThread.java:67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>66953e42b74e00003069de0f</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mcc&amp;Mnc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>android.telephony.TelephonyManager.getSimCountryIso</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>at android.telephony.TelephonyManager.getSimCountryIso
+at android.telephony.TelephonyManager.getSimCountryIso(null:12)
+at com.lm.components.privacy.looki.PhoneInfoManager.b(null:53)
+at com.lm.components.privacy.looki.PhoneInfoManager.a(SourceFile:17170533)
+at com.lm.components.privacy.looki.PhoneInfoManager.c(SourceFile:17104910)
+at com.lm.components.npth.NpthConfigManager.b(SourceFile:17104987)
+at com.lm.components.npth.NpthConfigManager.a(SourceFile:33816616)
+at com.lm.components.npth.NpthConfigManager.lambda$FgrJbo9VewfTFjlo8A48w11NgTI(null:0)
+at com.lm.components.npth.-$$Lambda$NpthConfigManager$FgrJbo9VewfTFjlo8A48w11NgTI.getHeader(null:2)
+at com.bytedance.crash.upload.CrashUploader.b(SourceFile:118030672)
+at com.bytedance.crash.upload.CrashUploader.a(SourceFile:271)
+at com.bytedance.crash.upload.CrashUploader.a(SourceFile:253)
+at com.bytedance.crash.upload.ApmConfigFetcher.b(SourceFile:17236090)
+at com.bytedance.crash.upload.ApmConfigFetcher.a(SourceFile:17104932)
+at com.bytedance.crash.upload.EventUploadQueue.a(SourceFile:34078946)
+at com.bytedance.crash.MonitorCrash.reportEvent(SourceFile:84082702)
+at com.bytedance.crash.runtime.MonitorCrashInner.a(SourceFile:50659385)
+at com.bytedance.crash.runtime.MainThreadEvents.b(SourceFile:196617)
+at com.bytedance.crash.NpthCore.a(SourceFile:418)
+at com.bytedance.crash.NpthCore$2.run(SourceFile:131078)
+at android.os.Handler.handleCallback(Handler.java:942)
+at android.os.Handler.dispatchMessage(Handler.java:99)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at com.bytedance.crash.runtime.ThreadWithHandler$InnerThread.onLooperPrepared(SourceFile:393356)
+at android.os.HandlerThread.run(HandlerThread.java:66)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>java.net.NetworkInterface.getNetworkInterfaces</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>android.telephony.TelephonyManager.requestCellInfoUpdate</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>android.net.wifi.IWifiManager$Stub$Proxy.getConnectionInfo</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>android.location.ILocationManager$Stub$Proxy.registerLocationListener</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>at java.net.NetworkInterface.getNetworkInterfaces
+at java.net.NetworkInterface.getNetworkInterfaces(null:7)
+at com.applovin.impl.sdk.utils.Utils.isVPNConnected(SourceFile:327685)
+at com.applovin.impl.sdk.p.a(SourceFile:34145456)
+at com.applovin.impl.sdk.p.a(SourceFile:309)
+at com.applovin.impl.sdk.p.a(SourceFile:50855952)
+at com.applovin.impl.sdk.EventServiceImpl.a(SourceFile:34013248)
+at com.applovin.impl.sdk.EventServiceImpl.a(SourceFile:50659332)
+at com.applovin.impl.sdk.EventServiceImpl$1.run(SourceFile:458761)
+at com.applovin.impl.sdk.e.ac.run(SourceFile:131078)
+at com.applovin.impl.sdk.e.r$d.run(SourceFile:458790)
+at java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:463)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ScheduledThreadPoolExecutor$ScheduledFutureTask.run(ScheduledThreadPoolExecutor.java:307)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>android.net.NetworkCapabilities.getTransportInfo</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>at android.net.NetworkCapabilities.getTransportInfo
+at android.net.NetworkCapabilities.getTransportInfo(null:12)
+at android.net.NetworkCapabilities.set(NetworkCapabilities.java:296)
+at android.net.NetworkCapabilities.&lt;init&gt;(NetworkCapabilities.java:253)
+at android.net.NetworkCapabilities.&lt;init&gt;(NetworkCapabilities.java:240)
+at android.net.NetworkRequest$Builder.build(NetworkRequest.java:238)
+at com.ironsource.sdk.service.Connectivity.e.a(null:70)
+at com.ironsource.sdk.controller.A.b(null:19)
+at com.ironsource.sdk.controller.A$8.run(null:8)
+at android.os.Handler.handleCallback(Handler.java:942)
+at android.os.Handler.dispatchMessage(Handler.java:99)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.os.HandlerThread.run(HandlerThread.java:67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>66953e47b74e00003069ded5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>android.net.wifi.WifiManager.getDhcpInfo</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>android.telephony.gsm.GsmCellLocation.getLac</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>android.net.wifi.IWifiManager$Stub$Proxy.getScanResults</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>at android.net.wifi.WifiManager.getDhcpInfo
+at android.net.wifi.WifiManager.getDhcpInfo(null:12)
+at ms.bd.o.a1.a(null:67)
+at ms.bd.o.b$a.a(null:9)
+at ms.bd.o.b.a(null:24)
+at ms.bd.o.k.b(null:4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SSID</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>android.net.wifi.WifiInfo.getSSID</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>android.telephony.TelephonyManager.getCellLocation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>android.location.LocationManager.registerGnssStatusCallback</t>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>at android.net.wifi.WifiInfo.getSSID
+at android.net.wifi.WifiInfo.getSSID(null:12)
+at android.net.wifi.WifiInfo.toString(WifiInfo.java:1453)
+at java.lang.String.valueOf(String.java:3657)
+at java.lang.StringBuilder.append(StringBuilder.java:132)
+at android.net.NetworkCapabilities.toString(NetworkCapabilities.java:2221)
+at com.ironsource.d.a.a(null:72)
+at com.ironsource.sdk.service.Connectivity.e$1.onLinkPropertiesChanged(null:26)
+at android.net.ConnectivityManager$NetworkCallback.onAvailable(ConnectivityManager.java:3815)
+at android.net.ConnectivityManager$NetworkCallback.onAvailable(ConnectivityManager.java:3791)
+at android.net.ConnectivityManager$CallbackHandler.handleMessage(ConnectivityManager.java:4120)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.os.HandlerThread.run(HandlerThread.java:67)</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adab</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>com.android.internal.telephony.ITelephony$Stub$Proxy.getCellLocation</t>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.getSensorList(1)</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.getSensorList(1)
+at android.hardware.SensorManager.getSensorList(null:23)
+at android.hardware.SensorManager.getDefaultSensor(SensorManager.java:501)
+at com.facebook.ads.redexgen.X.81.A0B(:18250)
+at com.facebook.ads.redexgen.X.X7.A6d(:66322)
+at com.facebook.ads.redexgen.X.XB.A6e(:66563)
+at com.facebook.ads.redexgen.X.3p.A03(:10615)
+at com.facebook.ads.redexgen.X.3p.A04(:10647)
+at com.facebook.ads.redexgen.X.3p.AEV(:10702)
+at com.facebook.ads.redexgen.X.Gf.A01(:35162)
+at com.facebook.ads.redexgen.X.Gf.A03(:35175)
+at com.facebook.ads.redexgen.X.Qm.run(:49957)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adad</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>android.net.wifi.IWifiManager$Stub$Proxy.startScan</t>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.getSensorList(4)</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.getSensorList(4)
+at android.hardware.SensorManager.getSensorList(null:23)
+at android.hardware.SensorManager.getDefaultSensor(SensorManager.java:501)
+at com.facebook.ads.redexgen.X.81.A0B(:18252)
+at com.facebook.ads.redexgen.X.X7.A6d(:66322)
+at com.facebook.ads.redexgen.X.XB.A6e(:66563)
+at com.facebook.ads.redexgen.X.3p.A03(:10615)
+at com.facebook.ads.redexgen.X.3p.A04(:10647)
+at com.facebook.ads.redexgen.X.3p.AEV(:10702)
+at com.facebook.ads.redexgen.X.Gf.A01(:35162)
+at com.facebook.ads.redexgen.X.Gf.A03(:35175)
+at com.facebook.ads.redexgen.X.Qm.run(:49957)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adac</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>com.android.id.impl.IdProviderImpl.getOAID</t>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.getDefaultSensor(1)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.getDefaultSensor(1)
+at android.hardware.SensorManager.getDefaultSensor(null:23)
+at com.facebook.ads.redexgen.X.81.A0B(:18250)
+at com.facebook.ads.redexgen.X.X7.A6d(:66322)
+at com.facebook.ads.redexgen.X.XB.A6e(:66563)
+at com.facebook.ads.redexgen.X.3p.A03(:10615)
+at com.facebook.ads.redexgen.X.3p.A04(:10647)
+at com.facebook.ads.redexgen.X.3p.AEV(:10702)
+at com.facebook.ads.redexgen.X.Gf.A01(:35162)
+at com.facebook.ads.redexgen.X.Gf.A03(:35175)
+at com.facebook.ads.redexgen.X.Qm.run(:49957)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adae</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>android.content.ClipboardManager.hasPrimaryClip</t>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.getDefaultSensor(4)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.getDefaultSensor(4)
+at android.hardware.SensorManager.getDefaultSensor(null:23)
+at com.facebook.ads.redexgen.X.81.A0B(:18252)
+at com.facebook.ads.redexgen.X.X7.A6d(:66322)
+at com.facebook.ads.redexgen.X.XB.A6e(:66563)
+at com.facebook.ads.redexgen.X.3p.A03(:10615)
+at com.facebook.ads.redexgen.X.3p.A04(:10647)
+at com.facebook.ads.redexgen.X.3p.AEV(:10702)
+at com.facebook.ads.redexgen.X.Gf.A01(:35162)
+at com.facebook.ads.redexgen.X.Gf.A03(:35175)
+at com.facebook.ads.redexgen.X.Qm.run(:49957)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>66950e3f4c31440030f56e29</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>android.net.wifi.WifiInfo.getBSSID</t>
+          <t>Sensor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.getSensorList(-1)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.getSensorList(-1)
+at android.hardware.SensorManager.getSensorList(null:23)
+at com.appsflyer.internal.AFd1qSDK.com_appsflyer_internal_AFd1qSDK_android_hardware_SensorManager_getSensorList(null:79)
+at com.appsflyer.internal.AFd1qSDK.AFInAppEventParameterName(SourceFile:590620)
+at com.appsflyer.internal.AFd1qSDK.&lt;init&gt;(SourceFile:33751059)
+at com.appsflyer.internal.AFf1pSDK.AFInAppEventType(SourceFile:17236038)
+at com.appsflyer.internal.AFf1kSDK.AFInAppEventType(SourceFile:17301508)
+at com.appsflyer.internal.AFf1pSDK.valueOf(SourceFile:17235986)
+at com.appsflyer.internal.AFf1tSDK.AFInAppEventType(SourceFile:458849)
+at com.appsflyer.internal.AFe1fSDK.e(SourceFile:327716)
+at com.appsflyer.internal.AFe1dSDK$2.run(SourceFile:458911)
+at java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:463)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad1b</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>android.telephony.TelephonyManager.listen</t>
+          <t>UserInfo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>com.google.android.gms.ads.identifier.AdvertisingIdClient.getAdvertisingIdInfo</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>at com.google.android.gms.ads.identifier.AdvertisingIdClient.getAdvertisingIdInfo
+at com.google.android.gms.ads.identifier.AdvertisingIdClient.getAdvertisingIdInfo(null:14)
+at com.appsflyer.internal.AFb1tSDK.com_appsflyer_internal_AFb1tSDK_com_google_android_gms_ads_identifier_AdvertisingIdClient_getAdvertisingIdInfo(null:77)
+at com.appsflyer.internal.AFb1tSDK.valueOf(SourceFile:34078797)
+at com.appsflyer.internal.AFb1vSDK.AFKeystoreWrapper(SourceFile:1425)
+at com.appsflyer.internal.AFb1vSDK.values(SourceFile:1317)
+at com.appsflyer.internal.AFb1vSDK.AFInAppEventParameterName(SourceFile:34144282)
+at com.appsflyer.internal.AFb1vSDK$AFa1uSDK.run(SourceFile:131080)
+at java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:463)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ScheduledThreadPoolExecutor$ScheduledFutureTask.run(ScheduledThreadPoolExecutor.java:307)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>66950e44a564f9002f82ada2</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>android.content.IClipboard$Stub$Proxy.getPrimaryClip</t>
-        </is>
-      </c>
+          <t>account|content|device_id|did|name|openudid|token|uid</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://passport-api-va-us-looki.capcutapi.com/passport/auth/login_only/</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>66953e43b74e00003069de94</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>android.telephony.TelephonyManager.getNetworkCountryIso</t>
+          <t>android_id</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>android.provider.Settings$System.getString("android_id")</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>at android.provider.Settings$System.getString("android_id")
+at android.provider.Settings$System.getString(null:21)
+at com.vega.launcher.report.AppsFlyerAnalytics.a(null:80)
+at com.vega.launcher.report.AppsFlyerAnalytics.a(SourceFile:17170455)
+at com.vega.launcher.report.AppsFlyerAnalytics.a(SourceFile:17367447)
+at com.vega.launcher.init.InitManagerEx.a(SourceFile:17104911)
+at com.vega.launcher.init.InitManager.d(SourceFile:16973842)
+at com.vega.launcher.init.InitManager.lambda$O6I_cBuCak8WRWbpoZLeAGjAZKI(null:0)
+at com.vega.launcher.init.-$$Lambda$InitManager$O6I_cBuCak8WRWbpoZLeAGjAZKI.run(null:2)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at com.lm.components.core.StartExecutorService$threadFactory$1.a(SourceFile:33751062)
+at com.lm.components.core.StartExecutorService$threadFactory$1.lambda$vfY5W-s4LShjdeA1x8uDLfT5cpc(null:0)
+at com.lm.components.core.-$$Lambda$StartExecutorService$threadFactory$1$vfY5W-s4LShjdeA1x8uDLfT5cpc.run(null:4)
+at java.lang.Thread.run(Thread.java:1012)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e43a564f9002f84bdd7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.android.vending)</t>
+          <t>android_id</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>android.provider.Settings$Secure.getString("android_id")</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>at android.provider.Settings$Secure.getString("android_id")
+at android.provider.Settings$Secure.getString(null:21)
+at com.ss.android.deviceregister.utils.HardwareUtils.com_ss_android_deviceregister_utils_HardwareUtils_android_provider_Settings$Secure_getString(null:80)
+at com.ss.android.deviceregister.utils.HardwareUtils.getSecureAndroidId(SourceFile:16973835)
+at com.ss.android.deviceregister.AbsDeviceParamsProvider.getOpenUdid(SourceFile:17235992)
+at com.ss.android.deviceregister.core.RegisterServiceController.getOpenUdid(SourceFile:196628)
+at com.ss.android.deviceregister.OldImpl.getOpenUdId(SourceFile:327700)
+at com.ss.android.deviceregister.OldImpl.getSSIDs(SourceFile:34013401)
+at com.ss.android.deviceregister.DeviceRegisterManager.getSSIDs(SourceFile:16973832)
+at com.ss.android.common.applog.NetUtilWrapper.putCommonParamsWithLevel(SourceFile:50921615)
+at com.ss.android.common.applog.NetUtil.putCommonParamsWithLevel(SourceFile:50593832)
+at com.ss.android.common.applog.NetUtil.appendCommonParamsWithLevel(SourceFile:50724941)
+at com.ss.android.common.applog.NetUtil.addCommonParamsWithLevel(SourceFile:50593834)
+at com.lm.components.report.applog.AppLogImpl.a(SourceFile:33751046)
+at com.lm.components.report.ReportManager.a(null:6)
+at com.lm.components.core.network.NetworkDevice.a(SourceFile:33685510)
+at com.lm.components.network.init.TTNetApiProcessHooker.addCommonParams(SourceFile:33947769)
+at com.bytedance.frameworks.baselib.network.http.NetworkParams.addCommonParams(SourceFile:33685508)
+at com.bytedance.frameworks.baselib.network.http.retrofit.BaseSsInterceptor.tryAddCommonParams(SourceFile:16908289)
+at com.bytedance.frameworks.baselib.network.http.retrofit.BaseSsInterceptor.intercept(SourceFile:17170594)
+at com.bytedance.ttnet.retrofit.SsInterceptor.intercept(SourceFile:17235972)
+at com.bytedance.frameworks.baselib.network.http.retrofit.BaseSsInterceptor.intercept(SourceFile:17104943)
+at com.bytedance.retrofit2.intercept.RealInterceptorChain.proceed(SourceFile:17236131)
+at com.bytedance.retrofit2.SsHttpCall.getResponseWithInterceptorChain(SourceFile:327770)
+at com.bytedance.retrofit2.SsHttpCall.execute(SourceFile:459113)
+at com.bytedance.retrofit2.ExecutorCallAdapterFactory$ExecutorCallbackCall.execute(SourceFile:131078)
+at com.vega.launcher.init.model.ActivityStatusRepository$requestActivityStatus$2.invokeSuspend(SourceFile:17170470)
+at com.vega.launcher.init.model.ActivityStatusRepository$requestActivityStatus$2.a(null:12)
+at com.vega.launcher.init.model.ActivityStatusRepository$requestActivityStatus$2.invoke(null:8)
+at kotlinx.coroutines.intrinsics.UndispatchedKt.a(SourceFile:50724887)
+at kotlinx.coroutines.BuildersKt__Builders_commonKt.a(SourceFile:50724967)
+at kotlinx.coroutines.BuildersKt.withContext(null:1)
+at com.vega.launcher.init.model.ActivityStatusRepository.a(SourceFile:17039378)
+at com.vega.launcher.init.InitManager$requestActivityStatus$1.invokeSuspend(SourceFile:17170491)
+at kotlin.coroutines.jvm.internal.BaseContinuationImpl.resumeWith(SourceFile:17039374)
+at kotlinx.coroutines.DispatchedTask.run(SourceFile:524513)
+at kotlinx.coroutines.internal.LimitedDispatcher.run(SourceFile:393249)
+at kotlinx.coroutines.scheduling.TaskImpl.run(SourceFile:262153)
+at kotlinx.coroutines.scheduling.CoroutineScheduler.a(SourceFile:570)
+at kotlinx.coroutines.scheduling.CoroutineScheduler$Worker.a(SourceFile:17039395)
+at kotlinx.coroutines.scheduling.CoroutineScheduler$Worker.d(SourceFile:393280)
+at kotlinx.coroutines.scheduling.CoroutineScheduler$Worker.run(SourceFile:131076)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e42b74e00003069de3c</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xingin.xhs)</t>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://graph.facebook.com/v15.0/app</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>没有堆栈信息</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aef1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.smile.gifmaker)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|email|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/luckycat/i18n/capcut/campaign/v1/coldstart_popup</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e3fa564f9002f82ad39</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.hiro.route_monitor)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|image|name|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://gecko-sg.byteoversea.com/gecko/server/v5/package</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af1c</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.xmsf)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|image|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v2/replicate/get_collection_templates</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e78a564f9002f82b1fb</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(my.maya.android)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|ip|name|openudid|session_id|token|uid</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://i.isnssdk.com/monitor/collect/batch/</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e3fa564f9002f82ad09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(android)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|name|openudid|session_id|uid</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://log.byteoversea.com/service/2/app_log/</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>669513fd79ff0d0030c401bd</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.ss.android.article.lite)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|name|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://vcs-va.tiktokv.com/vc/setting</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af0c</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.google.android.trichromelibrary_593806033)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|name|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/feedback/3/list/</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e48a564f9002f84bdfa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.google.android.webview)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|name|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://gecko-sg.byteoversea.com/gecko/api/settings/v1</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66956174a564f9002f85dccd</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.resolveActivityAsUser(tel)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|name|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://log.byteoversea.com/service/2/log_settings/</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66954e26b74e0000306a7237</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.google.android.gms)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|name|session_id|uid</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://mon.isnssdk.com/monitor/collect/batch/</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950f4ba564f9002f82beb4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.resolveActivityAsUser(android.intent.action.MAIN)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|token|uid</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://passport-api.capcutapi.com/passport/token/beat/v2/</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950f4da564f9002f82bed5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.resolveActivityAsUser(smsto)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|token|uid</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://passport-api.capcutapi.com/passport/account/info/v2/</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e47b74e00003069dede</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.queryIntentActivities(com.smile.gifmaker)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|token|uid</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://mssdk-sg.byteoversea.com/sdi/get_token</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aed6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.kuaishou.nebula)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|token|uid</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/ever_photo/get_global_token</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aecf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.queryIntentActivities(android.intent.action.MAIN)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/commerce/get_entrances</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aee3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.unionpay)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v1/subscription/pop_up</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aee9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.ss.android.ugc.aweme)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/ad_maker/device/get_enable_list</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aeea</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.android.soundrecorder)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/ever_photo/switch</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e3fa564f9002f82ad1a</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.privacy.rt.watchdog)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v3/benefits/batch_get_user_benefit</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.duokan.phone.remotecontroller)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/user/get_enable_list</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af0b</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.gamecenter)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/edit/get_config</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(cn.wps.moffice_eng.xiaomi.lite)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/task/get_feed_tasks</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aed3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.scanner)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/artist/v1/action/get_user_action_list</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82aeff</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.vipaccount)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/ad_maker/user/get_enable_list</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e43b74e00003069de83</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.mediaeditor)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://mssdk-sg.byteoversea.com/ms/get_seed</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.smarthome)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v1/vip/get_benefits</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e5aa564f9002f82af2f</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.virtualsim)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/luckycat/i18n/capcut/campaign/v1/resource</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e4bb74e00003069df02</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.mibrain.speech)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://mssdk-sg.byteoversea.com/ri/report</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66954c51a564f9002f8530dc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.iflytek.inputmethod.miui)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://mssdk-sg.byteoversea.com/mscc/common_setting</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e43b74e00003069de61</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.securitymanager)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/luckycat/i18n/capcut/task/v1/activity_status</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aed1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.gallery)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/strategy/v1/web_ad_config/get</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e59a564f9002f82af12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.weather2)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/relation/feeds_state</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aec0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.notes)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/strategy/v1/ad_config/get</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e48a564f9002f82add0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.themestore)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://general-api-us-looki.capcutapi.com/looki/client/pseudonym/v1/id_convert</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aeb7</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.android.email)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v3/subscription/get_user_lite_info</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aeb3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.compass)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v1/subscription/user_info</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aecd</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.android.deskclock)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/user/age_gate</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aebf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.newmidrive)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/activity/new_login_benefits</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aeba</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.mi.health)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/notice/get_unpull_count</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aec9</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.tencent.weishi)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcut.com/consent/api/combine/list/v1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aee5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.youpin)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v1/benefits/batch_get_style_conf</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aec6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.fm)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/service/settings/v3/</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aed0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.tencent.mm)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/homepage/profile</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aec7</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.bytedance.iesqa.rtwatchdog)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/persona/get_libra_extra_params</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aece</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.eg.android.AlipayGphone)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/hotlist/get_feed_trends</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e43b74e00003067751f</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.ximalaya.ting.android)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/passport/app/region</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aebe</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.volcengine.corplink)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|openudid|uid|video</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v1/benefits/batch_get_user_benefit</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e58a564f9002f82aeaf</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.sina.weibo)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|token|uid</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/service/1/update_token/</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e46a564f9002f84bdef</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.miwallpaper.moon)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|uid</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://i.isnssdk.com/monitor/appmonitor/v4/settings</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66953e4cb74e00003069df17</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.achievo.vipshop)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|uid</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/cloudpush/update_sender/</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>6695453db74e0000306a2e04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xiaomi.shop)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|uid</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://mon.isnssdk.com/monitor/appmonitor/v4/settings</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e62a564f9002f82afd3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.ss.android.article.search)</t>
-        </is>
-      </c>
+          <t>content|device_id|did|uid</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://editor-api.capcutapi.com/v2/bytesync/api/pipeline</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e5ea564f9002f82af89</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.xt.retouch)</t>
-        </is>
-      </c>
+          <t>content|did|image|uid</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://p16-ulike-sg.ibyteimg.com/img/tos-maliva-v-bb6ae5/okWAsisHEiQVSAUMG5LiwADIIAZiUA7BvSAhw~tplv-resize:100:0.image</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66954c5bb74e0000306a629e</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.autonavi.minimap)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/2b41dc95460f886b8dbe64248fee4f99_zstd</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66954c5bb74e0000306a6293</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.Qunar)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/170941df09a2bd406178192ba89535f0_zstd</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66951420a564f9002f8307dd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.newhome)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://lf19-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/1900770578730c60648c7351b3d13aee</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66951425a564f9002f830844</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.duokan.reader)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/4e7689e0baff0e09acc8bf0296bfe8e7_zstd</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66951426a564f9002f83085a</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.player)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/32142ccaa83fef9a2cfcc71362af13f7_zstd</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e85b74e00003067770d</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.miui.video)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/09d6b8a76feb2c8434797e6252472513_zstd</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66951423a564f9002f83080c</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.mipay.wallet)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/d06254191a4e41113c8219e787d13b06</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AppInfo</t>
+          <t>66950e82a564f9002f82b29f</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>android.app.ApplicationPackageManager.getPackageInfo(com.ss.android.lark)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/feeaa65d5be6e6bad7690443645adf89_zstd</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MacAddress</t>
+          <t>66954c5db74e0000306a62c2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Runtime.exec(cat /sys/class/net/wlan0/address)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/84c8da6b0623017a9ef8024bafbc6c19</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954cc8a564f9002f8536a3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getSensorList(6)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/e72f74848b81afdbec2a94cbc8461cd1_zstd</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954cc5a564f9002f853665</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getDefaultSensor(6)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/6b142c00eba6c37e4110ab4b496283d7_zstd</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954cbaa564f9002f8535ac</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getSensorList(4)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/977416b5f2beb7e94f6d691b5a42d4b5_zstd</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954cb4a564f9002f853546</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getDefaultSensor(4)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/bcc9cf11863d9f6aa99eab6cc9afe4e6_zstd</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954ca8a564f9002f853486</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getDefaultSensor(11)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/ea6e3b2969608b07f3046c468f4c73aa_zstd</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954ca1a564f9002f853423</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getDefaultSensor(3)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/a0071019ca913ab0437bbfe5c5e420c6_zstd</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954c89a564f9002f85329c</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getSensorList(3)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/5c3fbb6f796a5778c8a7b235055a5229_zstd</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954c81a564f9002f85321a</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getSensorList(-1)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/5ca62ddc88e85d24087eac6a689cb195_zstd</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954c74a564f9002f853139</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getSensorList(11)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/b49f32ce8d2125d73a54a1db96842adf_zstd</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954c5cb74e0000306a62a8</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getDefaultSensor(1)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/c60e76467005fa890c48c2a95703b5b7</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>66954c70b74e0000306a641e</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.getSensorList(1)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/ed0bd691620a7c84717362d388910b4b_zstd</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>开始页面</t>
+          <t>66954c6fb74e0000306a6406</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>com.yxcorp.gifshow.HomeActivity.onStart</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/434b0f6320f619191f093925f4c9a991</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>暂停页面</t>
+          <t>66954c6eb74e0000306a63f8</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>com.yxcorp.gifshow.HomeActivity.onPause</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/db0f36019be38ee1669bfb910b06027e</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>权限申请</t>
+          <t>66954c6cb74e0000306a63d6</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>requestPermission(ACCESS_FINE_LOCATION,ACCESS_COARSE_LOCATION)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/60f8a53dc8bcc7ec6e9e952b830a9fa0</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>注销传感器</t>
+          <t>66954c6cb74e0000306a63cc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.unregisterListener(android.sensor.gyroscope;android.sensor.orientation;)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/11fc5d6b299d3a173e726ea3056856f1</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>监听传感器</t>
+          <t>66954c6bb74e0000306a63c2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.registerListener(android.sensor.gyroscope)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/100fc84cfb9aea42ad7a2541c9caae85</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>监听传感器</t>
+          <t>66954c69b74e0000306a639f</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.registerListener(android.sensor.orientation)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/4ff2208317c93f8c8dd1cdee4467fd98</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>监听传感器</t>
+          <t>66954c64b74e0000306a634a</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>android.hardware.SensorManager.registerListener(android.sensor.accelerometer)</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/3ef2d0de5eb1feec61c8931055948141_zstd</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>离开页面</t>
+          <t>66954c63b74e0000306a632e</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>com.yxcorp.gifshow.HomeActivity.onStop</t>
-        </is>
-      </c>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/06b49b0bd4705080a3b21858959c10e3_zstd</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>66954c61b74e0000306a6309</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/70b1423c29bd21997d59aa2e40b0bce8</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>66950e85a564f9002f82b2d9</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/2a11e53b69c0c9bebbc0d480568199d1_zstd</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>66950e84b74e0000306776fa</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/5ee74ef6fbe29ac87f89f6f068b7d1d5_zstd</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af87</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/oAAiGjA6iUQ2Z7CEH7vAqCBA9UdISpzggixhX~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>66950e83b74e0000306776e6</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/4f795f6e7a0c59840261e7e321fa1bc0</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>66950e80a564f9002f82b273</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/62bbde58ed33efa010d5a62c17810a9f_zstd</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>66950e7ea564f9002f82b25a</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/c177e0e3777d3af67f5a2483d1d51801_zstd</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>66950e84a564f9002f82b2d1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/2b1b58b1cc9fb37477942178df6dcc6a_zstd</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af84</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/o44ertcJMQSATACY0EPWfBGQgcMAfkHKZg81Zl~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af85</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-alisg-v-643f9f/ocAAK3EQIBgmOwkfn2FQhEESqJxseuClDCOtA5~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af7d</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-alisg-v-643f9f/owkBBWfBQE6ltmmukPF6ChnzHCwCBieAiAAEIg~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af79</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-alisg-v-643f9f/o0eruAiEtQjfCMESZgAT4QAkICXmN4DxdvlBFC~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af74</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/oQSdIU6lRA4QxHtibRaZoiAEA0EBBJiwPAEQH~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af7c</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/oc1VcU7rZaMDzZiLAA8AQBMFduuUiv6EBA4iI~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af78</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-i-6rr7idwo9f-us/791511fedb9d4a9e9cc3a57189885c09~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af71</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/oIwCl3AkIEx8XfABW0mpiDoCkQoQJyAfQD0FE1~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af76</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/o49RqZmEA11BAIrExCFmDSCDQyJYABaafUkpbe~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>66950e5ea564f9002f82af75</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://p16-capcut-sign-va.ibyteimg.com/tos-maliva-v-be9c48-us/oUAIoi7A6EDEzBIfMAbRChhJuXXB0BiIECHg8V~tplv-nhvfeczskr-1:500:0.webp</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad3b</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/6a788ae53df54633b48b52323c81451b</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>66950e52a564f9002f82ae2b</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/bd7c94c2ed74ff589c9add85a2828759</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>66950e80b74e00003067768c</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/1fa514e4ade85eba9f5450aa4e824cab_zstd</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>66950e81b74e0000306776a5</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/7bd3c6e642bc3276bee469aaba861921_zstd</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>66950e79a564f9002f82b20a</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://lf19-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/bd7c94c2ed74ff589c9add85a2828759</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>66950e81b74e0000306776ba</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/69ec779a65b8278cd715aaa44393dafb_zstd</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>66950e81b74e0000306776cc</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/47a786d2669d86f167a4e960c2e4eb27_zstd</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>66950e82a564f9002f82b2a9</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/7be1504e0499df93dd732b922c13e024_zstd</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>66950e83b74e0000306776db</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/34d9386c37960112603adfdcf3aa8dda</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>66950e81a564f9002f82b293</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/f7e6c437eab62b318c1fa0a3d1802b50_zstd</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>66950e83a564f9002f82b2c0</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/98b52d49ac1e558d3735f12143ea229e_zstd</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>66950e83a564f9002f82b2c7</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/eae379385be6cd718d384e1841d40701_zstd</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>66950e82a564f9002f82b2a3</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/9aa273ea9841c9fddb1080b6e5df893a_zstd</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>66950e81b74e0000306776b7</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>content|did|uid</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://lf16-geckocdn.bytegecko-i18n.com/obj/ies.fe.gecko.alisg/6b572e389609ec1d7f51b370fc578e09_zstd</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>66953e42b74e00003069de14</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>device_id</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://mon-boot.capcutapi.com/monitor/appmonitor/v3/settings</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>没有堆栈信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>66953e43b74e00003069de91</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>device_id</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://mon-va.byteoversea.com/monitor_web/settings/hybrid-settings</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>6695140579ff0d0030c40202</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>device_id|openudid</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://gecko-sg.byteoversea.com/gecko/server/v2/combine/check</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad21</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>device_id|openudid</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://feed-api.capcutapi.com/lv/v1/punish/get_punish_status</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>66953e53b74e00003069df88</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>device_id|openudid</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://commerce-api.capcutapi.com/commerce/v3/resource/benefit_metadata</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>66953e43b74e00003069de86</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>did|name</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://vcs-va-us-looki.capcutapi.com/vc/setting</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>669511b4a564f9002f82ebbd</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>gaid|name</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://adx-cn.ads.vungle.com/api/v5/ads</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>66950e34a564f9002f82ac9e</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>name|ugc|video</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://coverage-data-center.bytedance.net/api/v2/upload</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>没有堆栈信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>66950e46b74e000030677586</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>token</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/adnw_sync2</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>没有堆栈信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad30</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>开始页面</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>com.google.android.gms.auth.api.signin.internal.SignInHubActivity.onStart</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity","com.google.android.gms.auth.api.signin.internal.SignInHubActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82acff</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>开始页面</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>com.vega.main.MainActivity.onStart</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad00</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>开始页面</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>com.lemon.account.view.LoginActivity.onStart</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad2b</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>暂停页面</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>com.lemon.account.view.LoginActivity.onPause</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>66950e61a564f9002f82afc0</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>暂停页面</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>com.vega.main.MainActivity.onPause</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad37</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>暂停页面</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>com.google.android.gms.auth.api.signin.internal.SignInHubActivity.onPause</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity","com.google.android.gms.auth.api.signin.internal.SignInHubActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adb6</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>注销传感器</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.unregisterListener(android.sensor.gyroscope;)</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.unregisterListener(android.sensor.gyroscope;)
+at android.hardware.SensorManager.unregisterListener(null:19)
+at com.facebook.ads.redexgen.X.81.A07(:18204)
+at com.facebook.ads.redexgen.X.81.A05(:18197)
+at com.facebook.ads.redexgen.X.80.onSensorChanged(:18182)
+at android.hardware.SystemSensorManager$SensorEventQueue.dispatchSensorEvent(SystemSensorManager.java:964)
+at android.os.MessageQueue.nativePollOnce(MessageQueue.java:-2)
+at android.os.MessageQueue.next(MessageQueue.java:341)
+at android.os.Looper.loopOnce(Looper.java:169)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>66950e46a564f9002f82adb3</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>注销传感器</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.unregisterListener(android.sensor.accelerometer;)</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.unregisterListener(android.sensor.accelerometer;)
+at android.hardware.SensorManager.unregisterListener(null:19)
+at com.facebook.ads.redexgen.X.81.A06(:18199)
+at com.facebook.ads.redexgen.X.81.A04(:18196)
+at com.facebook.ads.redexgen.X.7z.onSensorChanged(:18176)
+at android.hardware.SystemSensorManager$SensorEventQueue.dispatchSensorEvent(SystemSensorManager.java:964)
+at android.os.MessageQueue.nativePollOnce(MessageQueue.java:-2)
+at android.os.MessageQueue.next(MessageQueue.java:341)
+at android.os.Looper.loopOnce(Looper.java:169)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>66950e61a564f9002f82afc1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>注销传感器</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.unregisterListener(android.sensor.gravity;android.sensor.gyroscope;)</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.unregisterListener(android.sensor.gravity;android.sensor.gyroscope;)
+at android.hardware.SensorManager.unregisterListener(null:19)
+at com.applovin.impl.sdk.utils.r.com_applovin_impl_sdk_utils_r_android_hardware_SensorManager_unregisterListener(null:49)
+at com.applovin.impl.sdk.utils.r.onReceive(SourceFile:33816603)
+at com.applovin.impl.sdk.AppLovinBroadcastManager.sendBroadcastSync(SourceFile:33882163)
+at com.applovin.impl.sdk.SessionTracker.c(SourceFile:393262)
+at com.applovin.impl.sdk.SessionTracker.b(SourceFile:262167)
+at com.applovin.impl.sdk.SessionTracker.c(SourceFile:16908292)
+at com.applovin.impl.sdk.SessionTracker$2.onTrimMemory(SourceFile:17039386)
+at android.content.ComponentCallbacksController.lambda$dispatchTrimMemory$1(ComponentCallbacksController.java:109)
+at android.content.ComponentCallbacksController$$ExternalSyntheticLambda1.accept(null:4)
+at android.content.ComponentCallbacksController.forAllComponentCallbacks(ComponentCallbacksController.java:124)
+at android.content.ComponentCallbacksController.dispatchTrimMemory(ComponentCallbacksController.java:107)
+at android.app.Application.onTrimMemory(Application.java:289)
+at com.vega.launcher.ScaffoldApplication.onTrimMemory(SourceFile:17039364)
+at android.app.ActivityThread.handleTrimMemory(ActivityThread.java:6567)
+at android.app.ActivityThread.-$$Nest$mhandleTrimMemory(null:0)
+at android.app.ActivityThread$ApplicationThread.lambda$scheduleTrimMemory$0(ActivityThread.java:1789)
+at android.app.ActivityThread$ApplicationThread$$ExternalSyntheticLambda2.accept(null:8)
+at com.android.internal.util.function.pooled.PooledLambdaImpl.doInvoke(PooledLambdaImpl.java:281)
+at com.android.internal.util.function.pooled.PooledLambdaImpl.invoke(PooledLambdaImpl.java:204)
+at com.android.internal.util.function.pooled.OmniFunction.run(OmniFunction.java:97)
+at android.view.Choreographer$CallbackRecord.run(Choreographer.java:1386)
+at android.view.Choreographer$CallbackRecord.run(Choreographer.java:1394)
+at android.view.Choreographer.doCallbacks(Choreographer.java:1013)
+at android.view.Choreographer.doFrame(Choreographer.java:913)
+at android.view.Choreographer$FrameDisplayEventReceiver.run(Choreographer.java:1366)
+at android.os.Handler.handleCallback(Handler.java:942)
+at android.os.Handler.dispatchMessage(Handler.java:99)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad05</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>注销传感器</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.unregisterListener()</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.unregisterListener()
+at android.hardware.SensorManager.unregisterListener(null:19)
+at com.applovin.impl.sdk.utils.r.com_applovin_impl_sdk_utils_r_android_hardware_SensorManager_unregisterListener(null:49)
+at com.applovin.impl.sdk.utils.r.a(SourceFile:327686)
+at com.applovin.impl.sdk.utils.r.onReceive(SourceFile:33816628)
+at com.applovin.impl.sdk.AppLovinBroadcastManager.sendBroadcastSync(SourceFile:33882163)
+at com.applovin.impl.sdk.SessionTracker.d(SourceFile:393298)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:262167)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:16908292)
+at com.applovin.impl.sdk.SessionTracker$1.onActivityResumed(SourceFile:16973836)
+at android.app.Application.dispatchActivityResumed(Application.java:440)
+at android.app.Activity.dispatchActivityResumed(Activity.java:1497)
+at android.app.Activity.onResume(Activity.java:2079)
+at androidx.fragment.app.FragmentActivity.onResume(SourceFile:262158)
+at com.lemon.account.BaseLoginActivity.onResume(SourceFile:262148)
+at com.lemon.account.view.LoginActivity.onResume(SourceFile:196620)
+at android.app.Instrumentation.callActivityOnResume(Instrumentation.java:1564)
+at android.app.Activity.performResume(Activity.java:8660)
+at android.app.ActivityThread.performResumeActivity(ActivityThread.java:4936)
+at android.app.ActivityThread.handleResumeActivity(ActivityThread.java:4980)
+at android.app.servertransaction.ResumeActivityItem.execute(ResumeActivityItem.java:54)
+at android.app.servertransaction.ActivityTransactionItem.execute(ActivityTransactionItem.java:45)
+at android.app.servertransaction.TransactionExecutor.executeLifecycleState(TransactionExecutor.java:176)
+at android.app.servertransaction.TransactionExecutor.execute(TransactionExecutor.java:97)
+at android.app.ActivityThread$H.handleMessage(ActivityThread.java:2405)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad1f</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>{"text":"使用 Google 登入","id":"com.lemon.lvoverseas:id\/flyout_login_fb","class":"com.vega.ui.state.pressed.PressedStateFrameLayout"}</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>66950e58a564f9002f82aed8</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>监听MediaContent</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>android.content.ContentResolver.registerContentObserver(content://media/external/images/media)</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>at android.content.ContentResolver.registerContentObserver(content://media/external/images/media)
+at android.content.ContentResolver.registerContentObserver(null:37)
+at cn.everphoto.core.repoimpl.MediaStoreRepoImpl.d(SourceFile:327723)
+at cn.everphoto.core.repoimpl.MediaStoreRepoImpl.&lt;init&gt;(SourceFile:262165)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule.b(SourceFile:131078)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.proxyBindMediaStoreRepository(SourceFile:16973832)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.provideInstance(SourceFile:16908292)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.get(SourceFile:131078)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.get(SourceFile:196612)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindLocalMediaStoreFactory.provideInstance(SourceFile:67371025)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindLocalMediaStoreFactory.get(SourceFile:196620)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindLocalMediaStoreFactory.get(SourceFile:131076)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.domain.core.model.LocalEntryStore_Factory.provideInstance(SourceFile:117768202)
+at cn.everphoto.domain.core.model.LocalEntryStore_Factory.get(SourceFile:196626)
+at cn.everphoto.domain.core.model.LocalEntryStore_Factory.get(SourceFile:131076)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.domain.core.model.AssetEntryMgr_Factory.provideInstance(SourceFile:84213790)
+at cn.everphoto.domain.core.model.AssetEntryMgr_Factory.get(SourceFile:196622)
+at cn.everphoto.domain.core.model.AssetEntryMgr_Factory.get(SourceFile:131076)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.sdkcommon.di.DaggerSdkCommonComponent.q(SourceFile:196614)
+at cn.everphoto.sdkcommon.CommonSpaceProxy$triggerAssetInit$2.a(SourceFile:17039368)
+at cn.everphoto.sdkcommon.CommonSpaceProxy$triggerAssetInit$2.accept(SourceFile:16908294)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach$DoOnEachObserver.onNext(SourceFile:17039374)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach$DoOnEachObserver.onNext(SourceFile:17039379)
+at io.reactivex.internal.operators.observable.ObservableScalarXMap$ScalarDisposable.run(SourceFile:327717)
+at io.reactivex.internal.operators.observable.ObservableJust.subscribeActual(SourceFile:16973844)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDelay.subscribeActual(SourceFile:17039405)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableSubscribeOn$SubscribeTask.run(SourceFile:196618)
+at io.reactivex.internal.schedulers.ScheduledDirectTask.call(SourceFile:262160)
+at io.reactivex.internal.schedulers.ScheduledDirectTask.call(SourceFile:131076)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>66950e58a564f9002f82aed9</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>监听MediaContent</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>android.content.ContentResolver.registerContentObserver(content://media/external/video/media)</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>at android.content.ContentResolver.registerContentObserver(content://media/external/video/media)
+at android.content.ContentResolver.registerContentObserver(null:37)
+at cn.everphoto.core.repoimpl.MediaStoreRepoImpl.d(SourceFile:327746)
+at cn.everphoto.core.repoimpl.MediaStoreRepoImpl.&lt;init&gt;(SourceFile:262165)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule.b(SourceFile:131078)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.proxyBindMediaStoreRepository(SourceFile:16973832)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.provideInstance(SourceFile:16908292)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.get(SourceFile:131078)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindMediaStoreRepositoryFactory.get(SourceFile:196612)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindLocalMediaStoreFactory.provideInstance(SourceFile:67371025)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindLocalMediaStoreFactory.get(SourceFile:196620)
+at cn.everphoto.core.repoimpl.CoreRepositoryModule_BindLocalMediaStoreFactory.get(SourceFile:131076)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.domain.core.model.LocalEntryStore_Factory.provideInstance(SourceFile:117768202)
+at cn.everphoto.domain.core.model.LocalEntryStore_Factory.get(SourceFile:196626)
+at cn.everphoto.domain.core.model.LocalEntryStore_Factory.get(SourceFile:131076)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.domain.core.model.AssetEntryMgr_Factory.provideInstance(SourceFile:84213790)
+at cn.everphoto.domain.core.model.AssetEntryMgr_Factory.get(SourceFile:196622)
+at cn.everphoto.domain.core.model.AssetEntryMgr_Factory.get(SourceFile:131076)
+at dagger.internal.DoubleCheck.get(SourceFile:327713)
+at cn.everphoto.sdkcommon.di.DaggerSdkCommonComponent.q(SourceFile:196614)
+at cn.everphoto.sdkcommon.CommonSpaceProxy$triggerAssetInit$2.a(SourceFile:17039368)
+at cn.everphoto.sdkcommon.CommonSpaceProxy$triggerAssetInit$2.accept(SourceFile:16908294)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach$DoOnEachObserver.onNext(SourceFile:17039374)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach$DoOnEachObserver.onNext(SourceFile:17039379)
+at io.reactivex.internal.operators.observable.ObservableScalarXMap$ScalarDisposable.run(SourceFile:327717)
+at io.reactivex.internal.operators.observable.ObservableJust.subscribeActual(SourceFile:16973844)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDelay.subscribeActual(SourceFile:17039405)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableDoOnEach.subscribeActual(SourceFile:16973845)
+at io.reactivex.Observable.subscribe(SourceFile:17301535)
+at io.reactivex.internal.operators.observable.ObservableSubscribeOn$SubscribeTask.run(SourceFile:196618)
+at io.reactivex.internal.schedulers.ScheduledDirectTask.call(SourceFile:262160)
+at io.reactivex.internal.schedulers.ScheduledDirectTask.call(SourceFile:131076)
+at java.util.concurrent.FutureTask.run(FutureTask.java:264)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:30)
+at com.ss.android.ugc.bytex.pthread.base.convergence.hook.ThreadProxy$start$1.invoke(null:6)
+at com.ss.android.ugc.bytex.pthread.base.convergence.helper.ThreadWorker.run(null:144)
+at java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1137)
+at java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:637)
+at java.lang.Thread.run(Thread.java:1012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad13</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>监听传感器</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.registerListener(android.sensor.accelerometer)</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.registerListener(android.sensor.accelerometer)
+at android.hardware.SensorManager.registerListener(null:37)
+at com.applovin.impl.sdk.utils.k.com_applovin_impl_sdk_utils_k_android_hardware_SensorManager_registerListener(null:69)
+at com.applovin.impl.sdk.utils.k.INVOKEVIRTUAL_com_applovin_impl_sdk_utils_k_com_vega_launcher_lancet_SensorManagerLancet_registerListener(SourceFile:67436577)
+at com.applovin.impl.sdk.utils.k.a(SourceFile:327707)
+at com.applovin.impl.sdk.utils.k.onReceive(SourceFile:33816628)
+at com.applovin.impl.sdk.AppLovinBroadcastManager.sendBroadcastSync(SourceFile:33882163)
+at com.applovin.impl.sdk.SessionTracker.d(SourceFile:393298)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:262167)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:16908292)
+at com.applovin.impl.sdk.SessionTracker$1.onActivityResumed(SourceFile:16973836)
+at android.app.Application.dispatchActivityResumed(Application.java:440)
+at android.app.Activity.dispatchActivityResumed(Activity.java:1497)
+at android.app.Activity.onResume(Activity.java:2079)
+at androidx.fragment.app.FragmentActivity.onResume(SourceFile:262158)
+at com.lemon.account.BaseLoginActivity.onResume(SourceFile:262148)
+at com.lemon.account.view.LoginActivity.onResume(SourceFile:196620)
+at android.app.Instrumentation.callActivityOnResume(Instrumentation.java:1564)
+at android.app.Activity.performResume(Activity.java:8660)
+at android.app.ActivityThread.performResumeActivity(ActivityThread.java:4936)
+at android.app.ActivityThread.handleResumeActivity(ActivityThread.java:4980)
+at android.app.servertransaction.ResumeActivityItem.execute(ResumeActivityItem.java:54)
+at android.app.servertransaction.ActivityTransactionItem.execute(ActivityTransactionItem.java:45)
+at android.app.servertransaction.TransactionExecutor.executeLifecycleState(TransactionExecutor.java:176)
+at android.app.servertransaction.TransactionExecutor.execute(TransactionExecutor.java:97)
+at android.app.ActivityThread$H.handleMessage(ActivityThread.java:2405)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad07</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>监听传感器</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.registerListener(android.sensor.gravity)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.registerListener(android.sensor.gravity)
+at android.hardware.SensorManager.registerListener(null:37)
+at com.applovin.impl.sdk.utils.r.com_applovin_impl_sdk_utils_r_android_hardware_SensorManager_registerListener(null:69)
+at com.applovin.impl.sdk.utils.r.INVOKEVIRTUAL_com_applovin_impl_sdk_utils_r_com_vega_launcher_lancet_SensorManagerLancet_registerListener(SourceFile:67436577)
+at com.applovin.impl.sdk.utils.r.a(SourceFile:327737)
+at com.applovin.impl.sdk.utils.r.onReceive(SourceFile:33816628)
+at com.applovin.impl.sdk.AppLovinBroadcastManager.sendBroadcastSync(SourceFile:33882163)
+at com.applovin.impl.sdk.SessionTracker.d(SourceFile:393298)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:262167)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:16908292)
+at com.applovin.impl.sdk.SessionTracker$1.onActivityResumed(SourceFile:16973836)
+at android.app.Application.dispatchActivityResumed(Application.java:440)
+at android.app.Activity.dispatchActivityResumed(Activity.java:1497)
+at android.app.Activity.onResume(Activity.java:2079)
+at androidx.fragment.app.FragmentActivity.onResume(SourceFile:262158)
+at com.lemon.account.BaseLoginActivity.onResume(SourceFile:262148)
+at com.lemon.account.view.LoginActivity.onResume(SourceFile:196620)
+at android.app.Instrumentation.callActivityOnResume(Instrumentation.java:1564)
+at android.app.Activity.performResume(Activity.java:8660)
+at android.app.ActivityThread.performResumeActivity(ActivityThread.java:4936)
+at android.app.ActivityThread.handleResumeActivity(ActivityThread.java:4980)
+at android.app.servertransaction.ResumeActivityItem.execute(ResumeActivityItem.java:54)
+at android.app.servertransaction.ActivityTransactionItem.execute(ActivityTransactionItem.java:45)
+at android.app.servertransaction.TransactionExecutor.executeLifecycleState(TransactionExecutor.java:176)
+at android.app.servertransaction.TransactionExecutor.execute(TransactionExecutor.java:97)
+at android.app.ActivityThread$H.handleMessage(ActivityThread.java:2405)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad11</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>监听传感器</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>android.hardware.SensorManager.registerListener(android.sensor.gyroscope)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>at android.hardware.SensorManager.registerListener(android.sensor.gyroscope)
+at android.hardware.SensorManager.registerListener(null:37)
+at com.applovin.impl.sdk.utils.r.com_applovin_impl_sdk_utils_r_android_hardware_SensorManager_registerListener(null:69)
+at com.applovin.impl.sdk.utils.r.INVOKEVIRTUAL_com_applovin_impl_sdk_utils_r_com_vega_launcher_lancet_SensorManagerLancet_registerListener(SourceFile:67436577)
+at com.applovin.impl.sdk.utils.r.a(SourceFile:327787)
+at com.applovin.impl.sdk.utils.r.onReceive(SourceFile:33816628)
+at com.applovin.impl.sdk.AppLovinBroadcastManager.sendBroadcastSync(SourceFile:33882163)
+at com.applovin.impl.sdk.SessionTracker.d(SourceFile:393298)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:262167)
+at com.applovin.impl.sdk.SessionTracker.a(SourceFile:16908292)
+at com.applovin.impl.sdk.SessionTracker$1.onActivityResumed(SourceFile:16973836)
+at android.app.Application.dispatchActivityResumed(Application.java:440)
+at android.app.Activity.dispatchActivityResumed(Activity.java:1497)
+at android.app.Activity.onResume(Activity.java:2079)
+at androidx.fragment.app.FragmentActivity.onResume(SourceFile:262158)
+at com.lemon.account.BaseLoginActivity.onResume(SourceFile:262148)
+at com.lemon.account.view.LoginActivity.onResume(SourceFile:196620)
+at android.app.Instrumentation.callActivityOnResume(Instrumentation.java:1564)
+at android.app.Activity.performResume(Activity.java:8660)
+at android.app.ActivityThread.performResumeActivity(ActivityThread.java:4936)
+at android.app.ActivityThread.handleResumeActivity(ActivityThread.java:4980)
+at android.app.servertransaction.ResumeActivityItem.execute(ResumeActivityItem.java:54)
+at android.app.servertransaction.ActivityTransactionItem.execute(ActivityTransactionItem.java:45)
+at android.app.servertransaction.TransactionExecutor.executeLifecycleState(TransactionExecutor.java:176)
+at android.app.servertransaction.TransactionExecutor.execute(TransactionExecutor.java:97)
+at android.app.ActivityThread$H.handleMessage(ActivityThread.java:2405)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.app.ActivityThread.main(ActivityThread.java:8152)
+at java.lang.reflect.Method.invoke(Method.java:-2)
+at com.android.internal.os.RuntimeInit$MethodAndArgsCaller.run(RuntimeInit.java:580)
+at com.android.internal.os.ZygoteInit.main(ZygoteInit.java:1028)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>66950e62a564f9002f82afc9</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>离开页面</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>com.vega.main.MainActivity.onStop</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>66950e43b74e00003067751b</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>离开页面</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>com.google.android.gms.auth.api.signin.internal.SignInHubActivity.onStop</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>66950e59a564f9002f82af00</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>离开页面</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>com.lemon.account.view.LoginActivity.onStop</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>66951431a564f9002f830922</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>设备信息-照明弹</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>com.android.internal.telephony.ITelephony$Stub$Proxy.getNetworkTypeForSubscriber</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>at com.android.internal.telephony.ITelephony$Stub$Proxy.getNetworkTypeForSubscriber
+at com.android.internal.telephony.ITelephony$Stub$Proxy.getNetworkTypeForSubscriber(null:37)
+at android.telephony.TelephonyManager.getNetworkType(TelephonyManager.java:3053)
+at android.telephony.TelephonyManager.getNetworkType(TelephonyManager.java:3017)
+at com.unity3d.services.core.connectivity.ConnectivityMonitor.com_unity3d_services_core_connectivity_ConnectivityMonitor_android_telephony_TelephonyManager_getNetworkType(null:77)
+at com.unity3d.services.core.connectivity.ConnectivityMonitor.connectionStatusChanged(SourceFile:393316)
+at com.unity3d.services.core.connectivity.ConnectivityNetworkCallback.onCapabilitiesChanged(SourceFile:33685508)
+at android.net.ConnectivityManager$CallbackHandler.handleMessage(ConnectivityManager.java:4137)
+at android.os.Handler.dispatchMessage(Handler.java:106)
+at android.os.Looper.loopOnce(Looper.java:211)
+at android.os.Looper.loop(Looper.java:300)
+at android.os.HandlerThread.run(HandlerThread.java:67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>66950e58a564f9002f82aeeb</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>进入页面</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>com.yxcorp.gifshow.HomeActivity.onResume</t>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>com.vega.main.MainActivity.onResume</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad31</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>进入页面</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>com.google.android.gms.auth.api.signin.internal.SignInHubActivity.onResume</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity","com.google.android.gms.auth.api.signin.internal.SignInHubActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>66950e3fa564f9002f82ad01</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>进入页面</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>com.lemon.account.view.LoginActivity.onResume</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>{"frontActivities":["com.vega.main.MainActivity","com.lemon.account.view.LoginActivity"]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>66954965a564f9002f8511db</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>进程启动</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>CapCut:push 进程启动</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>没有堆栈信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>66953e42b74e00003069de06</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>进程启动</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>CapCut 进程启动</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>没有堆栈信息</t>
         </is>
       </c>
     </row>
